--- a/data/trans_camb/P34A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>4.37806214777331</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>8.466585905754476</v>
+        <v>8.466585905754487</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-19.06503790030363</v>
@@ -664,7 +664,7 @@
         <v>1.398150580430102</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>5.900419110051147</v>
+        <v>5.900419110051136</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-27.77635762286715</v>
+        <v>-28.2624819191122</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.900442754329323</v>
+        <v>-7.605528956089662</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.01889965419344</v>
+        <v>-3.211390600733077</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-19.6835308370777</v>
+        <v>-19.61657188358853</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.04156806414187329</v>
+        <v>0.4108787865799207</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.560211342177594</v>
+        <v>4.859246567610802</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-21.76803195263686</v>
+        <v>-22.03699271124234</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.006563225765381</v>
+        <v>-1.772710219077394</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.613082201946496</v>
+        <v>2.651059435683602</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-19.72553572028619</v>
+        <v>-19.49008496992405</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.209231567438183</v>
+        <v>2.000936976031356</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.83612031195862</v>
+        <v>7.006987591354813</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-12.07605764295069</v>
+        <v>-11.71694637864946</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.258029574074852</v>
+        <v>8.742865648072724</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.07383761607952</v>
+        <v>12.24891426640069</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-16.09910004025226</v>
+        <v>-16.10440272538354</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.741713292227814</v>
+        <v>4.496068848444282</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.119889184508985</v>
+        <v>8.93243067455683</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.08417938375075398</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.162791655294733</v>
+        <v>0.1627916552947332</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.3741652087643313</v>
@@ -769,7 +769,7 @@
         <v>0.02743972010683854</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1158000083532054</v>
+        <v>0.1158000083532052</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5398090985786997</v>
+        <v>-0.5448223255297725</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1360330703550802</v>
+        <v>-0.1465273134698474</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.0592634876733473</v>
+        <v>-0.06485332252835191</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3633858694737083</v>
+        <v>-0.3656296442335056</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.001160997119735518</v>
+        <v>0.007287430791929862</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08319852927600392</v>
+        <v>0.0898930758830019</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4166327754237591</v>
+        <v>-0.4199655125906323</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03847943477879082</v>
+        <v>-0.03434336726782274</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.05075772631807868</v>
+        <v>0.05052853028178504</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.4168906034264998</v>
+        <v>-0.4074113108955669</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.04532401328045484</v>
+        <v>0.04167681746739355</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1433834592536945</v>
+        <v>0.1456407782654702</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2383758048985909</v>
+        <v>-0.236038057201864</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1643804335729869</v>
+        <v>0.173578712643743</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2419036146057051</v>
+        <v>0.2443666296467001</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.3250830377979365</v>
+        <v>-0.3255863975463629</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.09552986689250376</v>
+        <v>0.09273485542383918</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1851588154659304</v>
+        <v>0.1811857138479188</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-3.565194158386642</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-5.828602984925685</v>
+        <v>-5.82860298492569</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-15.56470978734396</v>
@@ -878,7 +878,7 @@
         <v>-6.081764776589288</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-7.260459601663771</v>
+        <v>-7.260459601663777</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-20.67315290312085</v>
+        <v>-20.42382035855767</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.62033178473917</v>
+        <v>-11.58749284683077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.86683282015083</v>
+        <v>-11.94161577801554</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-16.48239507186001</v>
+        <v>-16.65365155293013</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.930340937876919</v>
+        <v>-6.947259179568248</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.193743884076788</v>
+        <v>-8.968740584815439</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-17.99888764631662</v>
+        <v>-17.9318438211993</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.299064424453777</v>
+        <v>-8.429257829498447</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-9.536908832078982</v>
+        <v>-9.633425223638749</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-14.30722765340398</v>
+        <v>-14.60230744537223</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.420068709312609</v>
+        <v>-5.109705679873443</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.919909913831066</v>
+        <v>-5.406765412270382</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-9.575581873413306</v>
+        <v>-9.769312140282429</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.2072297904040449</v>
+        <v>-0.05633933678737384</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.599336341653137</v>
+        <v>-2.775577098525023</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-13.2950606515436</v>
+        <v>-13.40473522449927</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.736686223856513</v>
+        <v>-3.551465192265683</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-4.832879461690945</v>
+        <v>-5.059145930735737</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.08209438035513615</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.134213041177007</v>
+        <v>-0.1342130411770071</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.3712611419899358</v>
@@ -983,7 +983,7 @@
         <v>-0.1450668189204966</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1731819327127631</v>
+        <v>-0.1731819327127632</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4889015318271709</v>
+        <v>-0.4880371220151392</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2766750695045577</v>
+        <v>-0.2751983249852039</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2808732617358251</v>
+        <v>-0.2856870263648903</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3657460740615651</v>
+        <v>-0.3687092388510141</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1529548514473634</v>
+        <v>-0.1532777468498835</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2007042290964377</v>
+        <v>-0.1977751048263076</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4182333798685368</v>
+        <v>-0.4130332365763972</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1924450147560208</v>
+        <v>-0.1945427247162011</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2204411876512737</v>
+        <v>-0.2208582910365703</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.3651258938402577</v>
+        <v>-0.3745481612438767</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.140711052582434</v>
+        <v>-0.13353019205459</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1318076799963366</v>
+        <v>-0.1389271339759384</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2273353676372198</v>
+        <v>-0.2363114997628579</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.005944946549139042</v>
+        <v>-0.0006882177711066867</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.06171117295628703</v>
+        <v>-0.06672769532994369</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3291409280921162</v>
+        <v>-0.3257057792547192</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.08958043316586178</v>
+        <v>-0.08738229265588604</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1198480023030421</v>
+        <v>-0.1258014632064299</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-10.49741645928025</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-12.1456142133273</v>
+        <v>-12.14561421332731</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-16.59952306179829</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-18.17723247215944</v>
+        <v>-18.47614689999278</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.312438747184116</v>
+        <v>-9.468092709433444</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.414971732362012</v>
+        <v>-8.704610455347611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-26.29446227063333</v>
+        <v>-26.97153862194359</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-16.89414772554669</v>
+        <v>-16.50707862102693</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-17.24634760321433</v>
+        <v>-17.29915749381018</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-20.41293660026155</v>
+        <v>-20.34101966097121</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-10.4387717006031</v>
+        <v>-11.05144893650775</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-10.84123400745058</v>
+        <v>-10.94784380270908</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-7.815490378893437</v>
+        <v>-8.569935947308505</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.125097680452462</v>
+        <v>1.03386238146291</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.763546871179482</v>
+        <v>1.781201910722124</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-14.74475847281942</v>
+        <v>-15.48362611507194</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-4.320590453607716</v>
+        <v>-4.450559151376629</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-6.525761902069924</v>
+        <v>-6.233254051879867</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-12.92396271414592</v>
+        <v>-12.8255977227774</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-2.884567531477014</v>
+        <v>-2.670554151278649</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-3.480336657637849</v>
+        <v>-3.323475172165096</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.2699625108804218</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.3123492834578455</v>
+        <v>-0.3123492834578456</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.5121958808459078</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6246595334096507</v>
+        <v>-0.6169599646225704</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3139617872562859</v>
+        <v>-0.3184252647208214</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.292992978772752</v>
+        <v>-0.2944985143598374</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6278702109718649</v>
+        <v>-0.6417419119362745</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.395996718257901</v>
+        <v>-0.3922746963184908</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.407165143769776</v>
+        <v>-0.4140545116599312</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5957832891547473</v>
+        <v>-0.588039717134492</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.302868510848973</v>
+        <v>-0.3224185628888244</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3143182837584532</v>
+        <v>-0.314841024605984</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.3208018874199993</v>
+        <v>-0.3397375671952222</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.04657948480750491</v>
+        <v>0.04561642155264588</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.06860633037658904</v>
+        <v>0.07590394502804136</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.4116110544632615</v>
+        <v>-0.419066527720695</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1240575903511581</v>
+        <v>-0.1211570374156992</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1858967188538743</v>
+        <v>-0.180729202871911</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.4173486298387656</v>
+        <v>-0.4162983240160923</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.09376803438039603</v>
+        <v>-0.08874085084269104</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1192084506349219</v>
+        <v>-0.1124897590596243</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-7.180496481013981</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-7.696172083745107</v>
+        <v>-7.6961720837451</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-15.20945207407535</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-20.96142648827223</v>
+        <v>-20.88008279019807</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.547335624048722</v>
+        <v>-9.585347814170509</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.37483584461173</v>
+        <v>-10.18553408159319</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-17.40723939931012</v>
+        <v>-17.58504816515596</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.787325869231368</v>
+        <v>-5.85422225022841</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.791964663350141</v>
+        <v>-7.874127600672189</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-18.46736119556446</v>
+        <v>-18.48394644628628</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.900613689196295</v>
+        <v>-6.918619161123919</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-8.274499375882458</v>
+        <v>-8.134576597628113</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-16.06723637419724</v>
+        <v>-16.31936775804111</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.621774390368752</v>
+        <v>-4.759781626855522</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-5.315382130055371</v>
+        <v>-5.085010304024212</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-12.71300359072035</v>
+        <v>-12.79991884895422</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.7925125674523491</v>
+        <v>-1.014225907689705</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.356612623027735</v>
+        <v>-3.154405735204348</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-15.12622263021729</v>
+        <v>-15.23017945730001</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.54242294515178</v>
+        <v>-3.463886375283623</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.909349894212686</v>
+        <v>-4.902757246646241</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1748455372064161</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1874022702989214</v>
+        <v>-0.1874022702989213</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.3296828691890716</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4943423597148878</v>
+        <v>-0.4935453211243464</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2255911784255404</v>
+        <v>-0.2271503522951286</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2437701109018658</v>
+        <v>-0.2406606414898736</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3700724887774032</v>
+        <v>-0.3730293694234861</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1216772990054406</v>
+        <v>-0.1227335980121265</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1643700067172569</v>
+        <v>-0.1663639789872342</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4130733971130866</v>
+        <v>-0.4154831018555769</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1535437924496852</v>
+        <v>-0.156178198736954</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1859324706599733</v>
+        <v>-0.1831699679002556</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.400807217913893</v>
+        <v>-0.4102589636945306</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1169908938612176</v>
+        <v>-0.1187036443794414</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1330925288059785</v>
+        <v>-0.127530292686059</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.2838456971176472</v>
+        <v>-0.2859000547244965</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.01767402294713387</v>
+        <v>-0.02207101066230658</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.07495044344891966</v>
+        <v>-0.07030704994015967</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.3513360302764092</v>
+        <v>-0.355709127457189</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.08217254420909807</v>
+        <v>-0.08145163750592511</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1146087243700235</v>
+        <v>-0.1147368738755098</v>
       </c>
     </row>
     <row r="28">
